--- a/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
+++ b/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>First Name</t>
   </si>
@@ -32,10 +32,187 @@
     <t>helly@gmail.com</t>
   </si>
   <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>dhruvgadhesari@g.com</t>
+  </si>
+  <si>
+    <t>jenil</t>
+  </si>
+  <si>
+    <t>vasoya</t>
+  </si>
+  <si>
+    <t>dhruvgadhesariyapatel@gmail.com</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
     <t>jhon@gmail.com</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a@b.com</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c@d.com</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>e@f.com</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g@h.com</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>i@j.com</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>k@l.com</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m@n.com</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>o@p.com</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>q@r.com</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s@t.com</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>u@v.com</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x@y.com</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y@z.com</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>c@a.com</t>
+  </si>
+  <si>
+    <t>saa</t>
+  </si>
+  <si>
+    <t>asas</t>
+  </si>
+  <si>
+    <t>c@dasas.com</t>
+  </si>
+  <si>
+    <t>gfgf</t>
+  </si>
+  <si>
+    <t>fgdgdf</t>
+  </si>
+  <si>
+    <t>u@fdgfggmail.com</t>
+  </si>
+  <si>
+    <t>aabbcc</t>
+  </si>
+  <si>
+    <t>aabbcc@gmail.com</t>
+  </si>
+  <si>
+    <t>abcabc</t>
+  </si>
+  <si>
+    <t>wick</t>
+  </si>
+  <si>
+    <t>abcabc@gmail.com</t>
+  </si>
+  <si>
+    <t>akshay</t>
+  </si>
+  <si>
+    <t>akshayuser@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -43,18 +220,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,6 +262,8 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2"/>
+    <xf numFmtId="0" fontId="2"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,43 +274,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.072171211242676" customWidth="1"/>
+    <col min="2" max="2" width="11.734001159667969" customWidth="1"/>
+    <col min="3" max="3" width="35.43042755126953" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
+++ b/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>First Name</t>
   </si>
@@ -32,19 +32,13 @@
     <t>dhruvgadhesari@g.com</t>
   </si>
   <si>
-    <t>aa</t>
+    <t>s</t>
   </si>
   <si>
-    <t>b</t>
+    <t>t</t>
   </si>
   <si>
-    <t>a@b.com</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>c@a.com</t>
+    <t>s@t.com</t>
   </si>
   <si>
     <t>saa</t>
@@ -56,25 +50,10 @@
     <t>c@dasas.com</t>
   </si>
   <si>
-    <t>aabbcc</t>
+    <t>akshay</t>
   </si>
   <si>
     <t>user</t>
-  </si>
-  <si>
-    <t>aabbcc@gmail.com</t>
-  </si>
-  <si>
-    <t>abcabc</t>
-  </si>
-  <si>
-    <t>wick</t>
-  </si>
-  <si>
-    <t>abcabc@gmail.com</t>
-  </si>
-  <si>
-    <t>akshay</t>
   </si>
   <si>
     <t>akshayuser@gmail.com</t>
@@ -139,7 +118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -188,54 +167,21 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
+++ b/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -32,13 +32,19 @@
     <t>dhruvgadhesari@g.com</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>s@t.com</t>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a@b.com</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>c@a.com</t>
   </si>
   <si>
     <t>saa</t>
@@ -50,10 +56,25 @@
     <t>c@dasas.com</t>
   </si>
   <si>
+    <t>aabbcc</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>aabbcc@gmail.com</t>
+  </si>
+  <si>
+    <t>abcabc</t>
+  </si>
+  <si>
+    <t>wick</t>
+  </si>
+  <si>
+    <t>abcabc@gmail.com</t>
+  </si>
+  <si>
     <t>akshay</t>
-  </si>
-  <si>
-    <t>user</t>
   </si>
   <si>
     <t>akshayuser@gmail.com</t>
@@ -118,7 +139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -167,21 +188,54 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
+++ b/DemoProject/wwwroot/Downloads/filtered_19-.xlsx
@@ -85,32 +85,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,8 +113,6 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2"/>
-    <xf numFmtId="0" fontId="2"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,97 +128,92 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.072171211242676" customWidth="1"/>
-    <col min="2" max="2" width="11.734001159667969" customWidth="1"/>
-    <col min="3" max="3" width="24.284221649169922" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
     </row>
